--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,46 @@
   </si>
   <si>
     <t>用户玩过quiz app后，过了一天在game center中看不到自己的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当quiz的题面的文本过长时，可能会显示出3行，这样会被下面的图片选项给挡住，导致问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有过长的quiz都去掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -474,10 +514,12 @@
     <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,24 +532,30 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:5" ht="51">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="37" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -517,6 +565,34 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,26 @@
   </si>
   <si>
     <t>把所有过长的quiz都去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxr先试试加边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -595,6 +615,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="51">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +49,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络慢时， store的界面老是出不来，但又关不掉，只能kill掉app再开</t>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当quiz的题面的文本过长时，可能会显示出3行，这样会被下面的图片选项给挡住，导致问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有过长的quiz都去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxr先试试加边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +117,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。</t>
+    <t>网络慢时， store的界面老是出不来，但又关不掉，只能kill掉app再开. 
+其中一个例子是点击store中的restore purchase，在出现的要求apple id的界面上点cancel，然后就出现 "Connecting to iTunes..." 的等待框，然后啥动作都做不了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。不过如果是twitter的，是可以切到账户设置那边的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,47 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当quiz的题面的文本过长时，可能会显示出3行，这样会被下面的图片选项给挡住，导致问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm and zly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有过长的quiz都去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxr先试试加边</t>
+    <t>据说是apple的东西，不好改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,20 +209,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,23 +559,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="40.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,46 +586,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>41344</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="51">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+    <row r="3" spans="1:6" ht="119">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>41342</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37" customHeight="1">
+    <row r="4" spans="1:6" ht="37" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -597,39 +642,68 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="68">
+    <row r="5" spans="1:6" ht="68">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="51">
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="7" spans="1:6" ht="119">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。不过如果是twitter的，是可以切到账户设置那边的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +135,39 @@
   </si>
   <si>
     <t>发现日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
+不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,8 +234,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,11 +252,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -570,12 +599,12 @@
     <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="40.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="40.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,41 +615,47 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>41344</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="119">
+    <row r="3" spans="1:7" ht="119">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -631,10 +666,13 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="37" customHeight="1">
+    <row r="4" spans="1:7" ht="37" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -646,65 +684,80 @@
         <v>41345</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="68">
+    <row r="5" spans="1:7" ht="85">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
+    <row r="6" spans="1:7" ht="51">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>41345</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" ht="119">
+    <row r="7" spans="1:7" ht="136">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>41345</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="280" windowWidth="25040" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,54 @@
   </si>
   <si>
     <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击顶部的钻石图标，有时等很久也进入不了store的界面，只看到一个黑屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时发现app上的题目错乱，即使删掉app再装也不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现除了删除app，还得在xcode进行Product-&gt;Clean的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第一次加载时由于要生成数据库初始化数据，有好几秒钟的黑屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有待实现loading screen。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时点某些按钮点好几次没反应，不知是否是因为小的原因，比如back按钮，答题帮助按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看有无必要扩大一点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,8 +282,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -252,13 +306,19 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -756,8 +816,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:7" ht="34">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有待实现loading screen。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有时点某些按钮点好几次没反应，不知是否是因为小的原因，比如back按钮，答题帮助按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +208,22 @@
   </si>
   <si>
     <t>看看有无必要扩大一点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad好使，但touch上按钮一点就出问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有待实现loading screen。已经有使用占位图片的实现了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +659,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -675,47 +683,47 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>41344</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="119">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -727,12 +735,12 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -744,15 +752,15 @@
         <v>41345</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -764,136 +772,139 @@
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>41345</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="136">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>41345</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>41345</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
         <v>41345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +220,14 @@
   </si>
   <si>
     <t>fixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可以后退了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -683,228 +687,231 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>41344</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="119">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>41345</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>41345</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="136">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>41345</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>41345</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>41345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-440" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,27 +199,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有待实现loading screen。已经有使用占位图片的实现了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可以后退了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone好使，但touch的ios6.1.2上按钮一点就出问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app的store即使在美国那边也显示人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看看有无必要扩大一点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad好使，但touch上按钮一点就出问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有待实现loading screen。已经有使用占位图片的实现了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixing</t>
+    <t>app的store中的freebie上下的字体不统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message的统一整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包文件大小的估计导致的代码的project的文件目录层次整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,7 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前可以后退了</t>
+    <t>ldl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,8 +338,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,19 +374,31 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -736,13 +804,13 @@
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
@@ -779,13 +847,13 @@
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -888,13 +956,13 @@
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
@@ -904,14 +972,94 @@
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41345</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41346</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41346</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41346</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>41346</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-440" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="-36540" yWindow="-280" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有待实现loading screen。已经有使用占位图片的实现了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +264,18 @@
   </si>
   <si>
     <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了loading screen。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮尺寸已经改大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,8 +342,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -374,7 +384,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -387,6 +397,9 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +412,9 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,7 +747,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -804,13 +820,13 @@
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
@@ -853,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -919,7 +935,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
@@ -956,13 +975,13 @@
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
@@ -973,33 +992,36 @@
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>41345</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="2">
         <v>41346</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>29</v>
@@ -1007,19 +1029,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2">
         <v>41346</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>29</v>
@@ -1027,19 +1049,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>41346</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
@@ -1047,19 +1069,19 @@
     </row>
     <row r="15" spans="1:7" ht="34">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
         <v>41346</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36540" yWindow="-280" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>按钮尺寸已经改大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示是根据用户登陆的app store所在的地区显示的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,6 +393,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="31">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -400,22 +424,6 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -746,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1007,7 +1015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="34">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1021,10 +1029,13 @@
         <v>41346</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-440" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,160 +130,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击顶部的钻石图标，有时等很久也进入不了store的界面，只看到一个黑屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时发现app上的题目错乱，即使删掉app再装也不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现除了删除app，还得在xcode进行Product-&gt;Clean的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第一次加载时由于要生成数据库初始化数据，有好几秒钟的黑屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时点某些按钮点好几次没反应，不知是否是因为小的原因，比如back按钮，答题帮助按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可以后退了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone好使，但touch的ios6.1.2上按钮一点就出问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app的store即使在美国那边也显示人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app的store中的freebie上下的字体不统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message的统一整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包文件大小的估计导致的代码的project的文件目录层次整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了loading screen。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮尺寸已经改大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示是根据用户登陆的app store所在的地区显示的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步是消息内容确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
-不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击顶部的钻石图标，有时等很久也进入不了store的界面，只看到一个黑屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时发现app上的题目错乱，即使删掉app再装也不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现除了删除app，还得在xcode进行Product-&gt;Clean的操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在第一次加载时由于要生成数据库初始化数据，有好几秒钟的黑屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm and zxr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时点某些按钮点好几次没反应，不知是否是因为小的原因，比如back按钮，答题帮助按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前可以后退了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone好使，但touch的ios6.1.2上按钮一点就出问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app的store即使在美国那边也显示人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app的store中的freebie上下的字体不统一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm and zxr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message的统一整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打包文件大小的估计导致的代码的project的文件目录层次整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm and zly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现了loading screen。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮尺寸已经改大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示是根据用户登陆的app store所在的地区显示的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
+不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。
+另外，如果已经设置过facebook的账号，是可以正常发送news的。Twitter那边目前都是正常的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +398,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -409,21 +428,7 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -754,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -785,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -808,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -828,13 +833,13 @@
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
@@ -854,12 +859,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -871,13 +876,13 @@
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -897,15 +902,15 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="136">
+    <row r="7" spans="1:7" ht="187">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -920,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -928,7 +933,7 @@
     </row>
     <row r="8" spans="1:7" ht="34">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -943,156 +948,159 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>41345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>41345</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="2">
         <v>41346</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2">
         <v>41346</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>41346</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
         <v>41346</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,30 @@
     <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
 不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。
 另外，如果已经设置过facebook的账号，是可以正常发送news的。Twitter那边目前都是正常的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上锁的group加上数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game center如果没登录老弹对话框，需要判断没登录时不弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示需要去store购买的对话框上的Ok改为buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,8 +379,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,7 +429,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -413,6 +445,10 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -428,6 +464,10 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -757,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1103,6 +1143,57 @@
         <v>57</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41352</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41352</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41352</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -312,7 +312,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示需要去store购买的对话框上的Ok改为buy</t>
+    <t>点击被lock的package，提示需要去store购买的对话框上的Ok改为buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,8 +379,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,7 +433,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -449,6 +453,8 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -468,6 +474,8 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,7 +808,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1157,7 +1165,7 @@
         <v>41352</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34">
@@ -1174,7 +1182,7 @@
         <v>41352</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
@@ -1191,7 +1199,7 @@
         <v>41352</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone好使，但touch的ios6.1.2上按钮一点就出问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>app的store即使在美国那边也显示人民币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,14 +259,6 @@
   </si>
   <si>
     <t>closed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步是消息内容确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +293,16 @@
   </si>
   <si>
     <t>点击被lock的package，提示需要去store购买的对话框上的Ok改为buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。
+另外有问题是在Ask Friends中点击facebook或twitter的按钮也有类似问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone4s好使，但touch的ios6.1.2上按钮一点就出问题。又发现在iphone5上一点app就崩掉。
+后来的解决方式是加了对于nil的判断，nil一般是由于device中没有已经登录的account导致的，如果出现nil会弹出消息框提示先去登录facebook或twitter的account。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,8 +369,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,7 +427,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -455,6 +449,8 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -476,6 +472,8 @@
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -807,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -881,13 +879,13 @@
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
@@ -910,9 +908,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="85">
+    <row r="5" spans="1:7" ht="187">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -924,13 +922,13 @@
         <v>41345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -958,7 +956,7 @@
     </row>
     <row r="7" spans="1:7" ht="187">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="8" spans="1:7" ht="34">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -999,113 +997,113 @@
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>41345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
         <v>41345</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
         <v>41346</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="2">
         <v>41346</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
@@ -1113,53 +1111,50 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>41346</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="34">
       <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
         <v>41346</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>41352</v>
@@ -1170,13 +1165,13 @@
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2">
         <v>41352</v>
@@ -1187,13 +1182,13 @@
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>41352</v>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,43 +266,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上锁的group加上数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game center如果没登录老弹对话框，需要判断没登录时不弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击被lock的package，提示需要去store购买的对话框上的Ok改为buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。
+另外有问题是在Ask Friends中点击facebook或twitter的按钮也有类似问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After ask friend on Facebook is posted, the pop message says “Saved”. It should be “Sent”.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. On Game view, the back arrow is hard to click sometimes. Need further verification. Is the clickable area too small?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. On Stores page, Word “Token” should be replaced by diamond icon. Then we will stick the diamond icon unanimously to wherever it means token.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone4s好使，但touch的ios6.1.2上按钮一点就出问题。又发现在iphone5上一点app就崩掉。
+后来的解决方式是加了对于nil的判断，nil一般是由于device中没有已经登录的account导致的，如果出现nil会弹出消息框提示先去登录facebook或twitter的account。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
 不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。
-另外，如果已经设置过facebook的账号，是可以正常发送news的。Twitter那边目前都是正常的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上锁的group加上数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game center如果没登录老弹对话框，需要判断没登录时不弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击被lock的package，提示需要去store购买的对话框上的Ok改为buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击store中的"tell your twitter friends",提示去settings输入twitter的账号，完成后却没有发消息去twitter的界面。这是在5.0的模拟器上发现的。6.0的模拟器也有这个问题。
-另外有问题是在Ask Friends中点击facebook或twitter的按钮也有类似问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前是改为发送news的动作实际进行后才加币，不过尚不能控制等到实际发送成功再加币。目前在模拟器6.0上和ipad以及iphone4s好使，但touch的ios6.1.2上按钮一点就出问题。又发现在iphone5上一点app就崩掉。
-后来的解决方式是加了对于nil的判断，nil一般是由于device中没有已经登录的account导致的，如果出现nil会弹出消息框提示先去登录facebook或twitter的account。</t>
+另外，如果已经设置过facebook的账号，是可以正常发送news的。Twitter那边目前都是正常的。
+最近又发现在ios6.0的模拟器，点击ask friends对话框中的"tell your facebook friends",然后界面死掉了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-3-12
+2013-3-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,8 +391,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -427,7 +453,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -451,6 +477,8 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -474,6 +502,8 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -910,7 +940,7 @@
     </row>
     <row r="5" spans="1:7" ht="187">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -928,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -954,9 +984,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="187">
+    <row r="7" spans="1:7" ht="238">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -964,8 +994,8 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2">
-        <v>41345</v>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1148,13 +1178,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>41352</v>
@@ -1165,13 +1195,13 @@
     </row>
     <row r="17" spans="1:5" ht="34">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>41352</v>
@@ -1182,18 +1212,69 @@
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
         <v>41352</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41357</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="68">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41357</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>41357</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>把所有过长的quiz都去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>据说是apple的东西，不好改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发现日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,15 +308,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
+    <t>据说是apple的东西，不好改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在ios6.0的模拟器，点击store中的"tell your facebook friends",会弹出一个应该是apple的界面告知"No facebook Accounts"，下面有"Settings"和cancel两个按钮，点击Settings按钮，没有反应。
 不过如果是twitter的，是可以切到账户设置那边的。但是，后来发现等了很长一段时间之后再点，也不行了。
 另外，如果已经设置过facebook的账号，是可以正常发送news的。Twitter那边目前都是正常的。
-最近又发现在ios6.0的模拟器，点击ask friends对话框中的"tell your facebook friends",然后界面死掉了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-3-12
-2013-3-25</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近又发现在ios6.0的模拟器，点击ask friends对话框中的"tell your facebook friends",然后界面死掉了。另外6.1的模拟器,和6.1的touch5上没这问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来刘在他的模拟器上试是出来得很慢。不过我这边还是一点就死，不过也不总是出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,8 +394,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,7 +466,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="61">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -479,6 +492,11 @@
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -504,6 +522,11 @@
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -833,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -860,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -889,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -897,10 +920,10 @@
     </row>
     <row r="3" spans="1:7" ht="119">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -909,18 +932,18 @@
         <v>41342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="37" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -935,12 +958,12 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="187">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -955,196 +978,199 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
       <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>41345</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="238">
+    </row>
+    <row r="7" spans="1:7" ht="204">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41358</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>41345</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>41345</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>41345</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51">
+    </row>
+    <row r="11" spans="1:7" ht="34">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>41345</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41345</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2">
-        <v>41346</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D13" s="2">
         <v>41346</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -1153,55 +1179,58 @@
         <v>41346</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>41346</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41346</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2">
-        <v>41352</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>41352</v>
@@ -1212,13 +1241,13 @@
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>41352</v>
@@ -1227,29 +1256,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="34">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>41357</v>
+        <v>41352</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="68">
+    <row r="20" spans="1:5" ht="51">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1261,12 +1290,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="85">
+    <row r="21" spans="1:5" ht="68">
       <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1275,6 +1304,23 @@
         <v>41357</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>41357</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,22 @@
   </si>
   <si>
     <t>个别quiz的图片，如Ben Davis.jpg，下半部分一点东西没有，看上去是一张不完全的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入自己app的store，点击Restore Purchase按钮，在弹出的sign in的对话框中选择use existing id，这时又弹出对话框让输入账号密码，此时按物理home键让app退到后台，再点app图片进入到前台，此时对话框不见了，然后Restore Purchase按钮也点不了了，其他按钮看来要过很长一段时间才能点动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1324,6 +1340,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="136">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41361</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,7 +343,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open</t>
+    <t>当由于网络问题导致admob的banner广告一开始没有显示，后来网络好了它也一直不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group列表界面的按钮的颜色背景没有和前面package列表界面的对应package按钮的颜色背景对应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些quiz的icon的字面文本有点问题，如 - 应该改为空格等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,8 +438,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -482,7 +514,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="65">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -513,6 +545,8 @@
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -543,6 +577,8 @@
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -872,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1340,21 +1376,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="136">
+    <row r="23" spans="1:5" ht="51">
       <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41360</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41360</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="136">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>41361</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="51">
+      <c r="A26" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2">
+        <v>41361</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,26 @@
   </si>
   <si>
     <t>一些quiz的icon的字面文本有点问题，如 - 应该改为空格等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tapjoy显示比较慢的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm and ldl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过调查，第一次会相对慢得多，后面的会相对快一些。另外使用tapjoy的demo中的appid来显示广告比用我们自己的要快得多。根据和tapjoy的技术支持人员交流得知，应该是我们的app现在还有测试信息，等发布后去掉测试信息应就快了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1274,7 +1294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1291,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34">
+    <row r="18" spans="1:7" ht="34">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34">
+    <row r="19" spans="1:7" ht="34">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51">
+    <row r="20" spans="1:7" ht="51">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1342,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="68">
+    <row r="21" spans="1:7" ht="68">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1359,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="85">
+    <row r="22" spans="1:7" ht="85">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -1376,32 +1396,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51">
+    <row r="23" spans="1:7" ht="119">
       <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41359</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51">
+      <c r="A24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2">
-        <v>41360</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="34">
-      <c r="A24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2">
         <v>41360</v>
@@ -1410,37 +1433,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="136">
+    <row r="25" spans="1:7" ht="34">
       <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41360</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="136">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" s="2">
-        <v>41361</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="2">
         <v>41361</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2">
+        <v>41361</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,22 @@
   </si>
   <si>
     <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备执行app的release版本时，第一次会crash掉。怀疑跟5秒的限制有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1484,6 +1500,23 @@
         <v>82</v>
       </c>
     </row>
+    <row r="28" spans="1:7" ht="34">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41365</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,19 +395,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备执行app的release版本时，第一次会crash掉。怀疑跟5秒的限制有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
+    <t>lm and zly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备执行app的release版本时，第一次会crash掉。怀疑跟apple的5秒的限制有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始是在application didFinishLaunchingWithOptions通过异步进行数据库初始化，并出等待对话框以提示。却发现耗时很长，这个问题以前也多少存在，但现在很明显，虽然发现不同设备上时间也不同，不过在iphone4s上也要22秒。
+需要减少这个等待时间，后来决定暂不支持升级，通过预先生成数据文件打包发布的方式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +952,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1500,21 +1505,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34">
+    <row r="28" spans="1:7" ht="170">
       <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>41365</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/iphone/bugList.xlsx
+++ b/iphone/bugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,7 +412,12 @@
   </si>
   <si>
     <t>开始是在application didFinishLaunchingWithOptions通过异步进行数据库初始化，并出等待对话框以提示。却发现耗时很长，这个问题以前也多少存在，但现在很明显，虽然发现不同设备上时间也不同，不过在iphone4s上也要22秒。
-需要减少这个等待时间，后来决定暂不支持升级，通过预先生成数据文件打包发布的方式。</t>
+需要减少这个等待时间，后来决定暂不支持升级，通过预先生成数据文件打包发布的方式。
+另外后来发现这个crash跟debug及release的状态无关，而跟xcode，模拟器与真机有区别 有关。在真机20秒会出问题，而如果是xcode连真机启动的，很长时间（60秒）都不会出问题。还有，以前没发现也都是xcode连着的原因，我们app的耗时的操作只在初始化时有，而xcode启动app正好帮我们避免了这个crash。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1505,7 +1510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="170">
+    <row r="28" spans="1:7" ht="337" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>41365</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>94</v>
